--- a/loaded_influencer_data/alexndramagyar/alexndramagyar_video.xlsx
+++ b/loaded_influencer_data/alexndramagyar/alexndramagyar_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,16 +506,16 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7457580832698420502</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24900</v>
+        <v>25700</v>
       </c>
       <c r="C2" t="n">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="D2" t="n">
         <v>21</v>
@@ -534,19 +534,19 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.48995983935743</v>
+        <v>1.494163424124514</v>
       </c>
       <c r="I2" t="n">
-        <v>1.405622489959839</v>
+        <v>1.412451361867704</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0.08433734939759036</v>
+        <v>0.08171206225680934</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3855421686746988</v>
+        <v>0.3735408560311284</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
@@ -560,16 +560,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7461577667830205718</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30900</v>
+        <v>31100</v>
       </c>
       <c r="C3" t="n">
-        <v>1579</v>
+        <v>1586</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -587,19 +587,19 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5.155339805825243</v>
+        <v>5.144694533762058</v>
       </c>
       <c r="I3" t="n">
-        <v>5.110032362459547</v>
+        <v>5.09967845659164</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0453074433656958</v>
+        <v>0.04501607717041801</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7216828478964401</v>
+        <v>0.7234726688102894</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
@@ -613,16 +613,16 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7331327819097607457</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>74600</v>
+        <v>74800</v>
       </c>
       <c r="C4" t="n">
-        <v>2339</v>
+        <v>2347</v>
       </c>
       <c r="D4" t="n">
         <v>26</v>
@@ -631,28 +631,27 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Amikor ingyen vásárolsz a dm-ben!😍😱
-Ez a Gliss Silk maszk annyira jó, hogy újra is vettem és most a samponját is elhoztam. Imádom a</t>
+          <t>Már kapható a drogériákban a @GARNIER_HUNGARY új C vitaminos SPF 50 fényvédője mindössze 3990 forintért! Két változatban: invisible és glow. Elég jó drogériás opció!</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3.170241286863271</v>
+        <v>3.172459893048128</v>
       </c>
       <c r="I4" t="n">
-        <v>3.13538873994638</v>
+        <v>3.137700534759359</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03485254691689008</v>
+        <v>0.03475935828877005</v>
       </c>
       <c r="L4" t="n">
-        <v>1.092493297587132</v>
+        <v>1.092245989304813</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
@@ -666,229 +665,485 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/photo/7488981524784680214</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>355</v>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>@ZARA @annabelleminerals_hu
+#outfit #pink #pinktop #zara #zaraoutfit #ootd #outfitinspo #outfitcheck</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1.971830985915493</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.971830985915493</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2816901408450704</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7488802874672090390</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>354</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>@glow Végre megérkezett a GLOW guava arclemosó, amit már alig vártam! Ez az innovatív 2in1 formula olajból gél állagúvá alakul, így nincs szükség dupla tisztításra. Guava gyümölcskivonattal gazdagítva nemcsak tisztít, hanem ápolja is a bőrt, hogy ragyogó és hidratált legyen. Minden bőrtípusra alkalmas, hippoallergén és nem szárítja a bőrt – tökéletes választás a természetes szépségért! ✨</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2.824858757062147</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.259887005649718</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.5649717514124294</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.2824858757062147</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7488421522990796054</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>468</v>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ZARA SPRING
+Az a cipő!🩷
+#zara #zaraspring #zaraoutfit #spring #fasion #styleinspo #style #stílus #foryou</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3.632478632478633</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.418803418803419</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2136752136752137</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2136752136752137</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>2025-04-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7487983981875481878</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1810</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>GLAZED 🍩 MAKEUP
+A @NYX Professional Makeup Buttermelt glaze skin tint egyben bőrápoló, fényvédő és alapozó! Micsoda trio! Megmutatom, hogy kézzel milyen gyorsan fel tudod vinni. Ecsettel is tökéletesen használható!</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2.154696132596685</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.933701657458563</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2209944751381216</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.7182320441988951</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7487499638258322710</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>457</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Újdonság: NYX buttermelt glaze skintint teszt hamarosan!🤫
+@NYX Professional Makeup
+NYX BUTTERMELT GLAZE | NYX GLAZE</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3.719912472647703</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.282275711159737</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.437636761487965</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7487126331386531074</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>158</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="inlineStr">
+      <c r="B10" t="n">
+        <v>423</v>
+      </c>
+      <c r="C10" t="n">
+        <v>10</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
         <is>
           <t>Ollókat bemelegíteni✂️
 2025.04.10-től újra Glamour-napok! Az online drogériában és a mobil appban +3 nulladik nappal várnak, így ott màr 04.07-től indulnak az akciók! Hozom majd az én kedvenceimet!</t>
         </is>
       </c>
-      <c r="H5" t="n">
-        <v>1.89873417721519</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.89873417721519</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
+      <c r="H10" t="n">
+        <v>2.60047281323877</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.364066193853428</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.2364066193853428</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>2025-03-29</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7486360814367116566</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B11" t="n">
         <v>329</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C11" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D11" t="n">
         <v>3</v>
       </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Ismerd meg a @NERDS. új arclemosóját, amely nemcsak zseniális textúrával és fantasztikus összetevőkkel hódít, de pénztárcabarát is! 💎</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H11" t="n">
         <v>4.559270516717326</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I11" t="n">
         <v>3.64741641337386</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
         <v>0.911854103343465</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L11" t="n">
         <v>0.303951367781155</v>
       </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>2025-03-27</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7485997230919290134</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B12" t="n">
         <v>1257</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C12" t="n">
         <v>49</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D12" t="n">
         <v>6</v>
       </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
         <v>3</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>VIRAL TIRTIR ALAPOZÓ - megéri? 😱🫠
 A Yesstyle-on találtam rá az új Tirtir AI fit alapozóra, amiről azt olvastam, hogy kombinált/zsíros bőrtípusra szuper lesz.</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H12" t="n">
         <v>4.375497215592681</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I12" t="n">
         <v>3.898170246618934</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
         <v>0.477326968973747</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L12" t="n">
         <v>0.2386634844868735</v>
       </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="inlineStr">
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>2025-03-26</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/photo/7485067670371568919</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B13" t="n">
         <v>358</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C13" t="n">
         <v>30</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>4</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Csók bisztró és Hab Art galéria. Tökéletes laza program, ingyenes kiállítás és gyönyörű beülős hely, finom kávéval, sütikkel.</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="H13" t="n">
         <v>8.938547486033519</v>
       </c>
-      <c r="I8" t="n">
+      <c r="I13" t="n">
         <v>8.379888268156424</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>0.5586592178770949</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L13" t="n">
         <v>1.11731843575419</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7485064484797844758</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B14" t="n">
         <v>424</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C14" t="n">
         <v>36</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>3</v>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>#kollázs ezzel:
 @Magyar Szandi✨
@@ -896,1510 +1151,1260 @@
 haj | hajàpolás | hajápolási rutin| fényes haj| shiney hair| hairtok | haircare | tippek</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="H14" t="n">
         <v>8.490566037735849</v>
       </c>
-      <c r="I9" t="n">
+      <c r="I14" t="n">
         <v>8.490566037735849</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.7075471698113208</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-24</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7484694151498501398</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B15" t="n">
         <v>451</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C15" t="n">
         <v>19</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D15" t="n">
         <v>5</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>4</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>A kedvenc magyar skincare márkám, a @nerdsbeauty ,ismét nagyot alkotott! 2️⃣ új, alap darabbal bővítették a kínálatot:</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H15" t="n">
         <v>5.321507760532151</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I15" t="n">
         <v>4.212860310421286</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.108647450110865</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L15" t="n">
         <v>0.8869179600886918</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-23</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7484329102464290070</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B16" t="n">
         <v>379</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C16" t="n">
         <v>27</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D16" t="n">
         <v>6</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>6</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>6 perfect everyday parfumes
 Nice and long-lasting scents👌🏻
 Share your favorites in the comments and let’s swap recommendations!🌸</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H16" t="n">
         <v>8.707124010554089</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I16" t="n">
         <v>7.12401055408971</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>1.58311345646438</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L16" t="n">
         <v>1.58311345646438</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7484207112961363202</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B17" t="n">
         <v>892</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C17" t="n">
         <v>30</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D17" t="n">
         <v>10</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>4</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>ÚJ TIRTIR ALAPOZÓ! / NEW TIRTIR CUSHION FOUNDATION🧡
 Mutassam hogy néz ki a bőrömön?
 Tirtir | cushion foundation | alapozó | smink |makeup | kbeauty</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H17" t="n">
         <v>4.484304932735426</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I17" t="n">
         <v>3.363228699551569</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>1.121076233183856</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L17" t="n">
         <v>0.4484304932735426</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-22</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7483808129516408086</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B18" t="n">
         <v>515</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C18" t="n">
         <v>9</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Kedvenc fehérjedús rèteges reggelim:
 ▶️Alul @Lidl Magyarország 0% quark zsírszegény túró</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H18" t="n">
         <v>2.135922330097087</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I18" t="n">
         <v>1.747572815533981</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>0.3883495145631068</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L18" t="n">
         <v>0.5825242718446602</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7483567594482519318</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B19" t="n">
         <v>327</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C19" t="n">
         <v>12</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D19" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>2</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Ha szerda, akkor pink🩷
 Sötét foltok és pigmentáció kezelésére! 👌🏻Új termèkcsalád az Aprilskin-től, 99% TXA vonal! Tudtátok, hogy a Medicube màrkàhoz tartozik ez a brand is? Megfizethető, jó formulákkal.</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H19" t="n">
         <v>4.892966360856269</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I19" t="n">
         <v>3.669724770642202</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.223241590214067</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L19" t="n">
         <v>0.6116207951070336</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-20</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/photo/7483223888550268182</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B20" t="n">
         <v>396</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C20" t="n">
         <v>12</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D20" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Nincs ötleted, hogy mit vegyél fel? Iràny a Pinterest! A bézs garbó volt az alap, magamtól szerintem soha nem pàrosítottam volna inggel, de nagyon tetszett a végeredmèny. Te szoktál inspiràlódni Pinterestről? Személy szerint szeretem az outfit képeket böngészni és ötleteket gyűjteni, így sokkal több olyan darabot hordok, ami màr rég volt rajtam. 🙌</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H20" t="n">
         <v>4.040404040404041</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I20" t="n">
         <v>3.03030303030303</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>1.01010101010101</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L20" t="n">
         <v>0.5050505050505051</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7483182658055359766</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B21" t="n">
         <v>917</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C21" t="n">
         <v>22</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D21" t="n">
         <v>3</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>4</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>A fènyes haj titka? Egyszerű és nem drága termék. Nem is gondolnàd, lehet a te konyhádban is megtalàlható. Mutassam? 🕵️‍♀️</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H21" t="n">
         <v>2.726281352235551</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I21" t="n">
         <v>2.399127589967285</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0.3271537622682661</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L21" t="n">
         <v>0.4362050163576882</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-19</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7482815143554878742</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B22" t="n">
         <v>388</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C22" t="n">
         <v>25</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D22" t="n">
         <v>8</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Excuse mee.Amikor egy szèp kozmetikumot látok./ The sound in my mind when I see a beautiful product.
 Alig várom,hogy kipróbàljam! Köszönöm</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H22" t="n">
         <v>8.505154639175258</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I22" t="n">
         <v>6.443298969072164</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>2.061855670103093</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L22" t="n">
         <v>1.030927835051546</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/photo/7482084201823522070</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B23" t="n">
         <v>386</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C23" t="n">
         <v>14</v>
       </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>2</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>#szombat #eső #vibes #kávé #múzeum #munkàcsy #neked #foryou #magyartiktok</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H23" t="n">
         <v>3.626943005181347</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I23" t="n">
         <v>3.626943005181347</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.5181347150259068</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/photo/7481986168012213526</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B24" t="n">
         <v>441</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C24" t="n">
         <v>13</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>1</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Alapozó: @annabelleminerals_hu radiant mineral alapozó - golden fair /PR ajándèk volt tavaly,ezért reklàm
 Bronzer: Annabelle Minerals pressed mineral bronzer - ginger coffee /PR ajándèk volt tavaly,ezért reklàm</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H24" t="n">
         <v>3.401360544217687</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I24" t="n">
         <v>2.947845804988662</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0.453514739229025</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L24" t="n">
         <v>0.2267573696145125</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7481790586555501846</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B25" t="n">
         <v>604</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C25" t="n">
         <v>38</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D25" t="n">
         <v>2</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>4</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>@flyingtigerhu tavasz🩵
 #flyingtiger #flyingtigercopenhagen #flyingtigerhu #neked #bögre @Flying Tiger Copenhagen</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H25" t="n">
         <v>6.622516556291391</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I25" t="n">
         <v>6.291390728476822</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>0.3311258278145696</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L25" t="n">
         <v>0.6622516556291391</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/photo/7481541267835456790</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B26" t="n">
         <v>453</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>23</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D26" t="n">
         <v>5</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>1</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Megtaláltam a H&amp;M-ben az Adidas Samba és az Onitsuka Tiger cipő tökelétes,kényelmes és megfizethető változatát!! Már majdnem megvettem az OG Adidas Samba-t egy vagyonért, amikor megláttam a H&amp;M appban ez a cipőt. Nekem széles a lábfejem és eszméletlenül kényelmes, a saját méretem jó volt ràm és csinosabb szettekkel is jól fest. 12ezer lépés után sem törte fel a lábamat.</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>6.181015452538632</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>5.077262693156733</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>1.103752759381899</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L26" t="n">
         <v>0.2207505518763797</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7480680644113222934</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B27" t="n">
         <v>428</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C27" t="n">
         <v>13</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D27" t="n">
         <v>8</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Shrek megérkezett avagy próbáljuk ki a legfurább maszkot, amit VALAHA làttam!🧌
 A poszt reklàmnak minősül, a termékeket ajàndékba kaptam a @torriden és a @yesstyle jóvoltából.</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H27" t="n">
         <v>4.906542056074766</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I27" t="n">
         <v>3.037383177570093</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>1.869158878504673</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L27" t="n">
         <v>0.9345794392523363</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7480271268013542678</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B28" t="n">
         <v>686</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C28" t="n">
         <v>35</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D28" t="n">
         <v>22</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>10</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>🔥 Budapest LEGJOBB pitája?!
 A @Hari Kebab állítólag Budapest legfinomabb pitáját kínálja – én leteszteltem, és😋😍!</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H28" t="n">
         <v>8.309037900874635</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I28" t="n">
         <v>5.102040816326531</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>3.206997084548105</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L28" t="n">
         <v>1.457725947521866</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/photo/7479116315274333462</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B29" t="n">
         <v>592</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C29" t="n">
         <v>16</v>
       </c>
-      <c r="D24" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>2</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>kedvenc kiegészítők a @H&amp;M kínálatából
 #handm #hm #tavasz #divat #fashion #fashiontiktok #táska #bags</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H29" t="n">
         <v>2.702702702702703</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I29" t="n">
         <v>2.702702702702703</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.3378378378378378</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7477149677704580374</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B30" t="n">
         <v>831</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C30" t="n">
         <v>33</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D30" t="n">
         <v>5</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>4</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Alapozó update: @maybelline_hungary Superstay Lumi matte alapozó még mindig óriási kedvenc. Reggel 9-kor kentem fel, a videót délután négykor készítettem: nincs alatta primer, nem használtam púdert vagy fixáló spray-t és még mindig tökéletesen néz ki a bőrömön. Pedig órákat sétáltunk a napon. Nem érezni, hogy a bőrömön van, a legjobb drogériás alapozó.</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H30" t="n">
         <v>4.57280385078219</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I30" t="n">
         <v>3.971119133574007</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>0.601684717208183</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L30" t="n">
         <v>0.4813477737665464</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7476750417758571798</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B31" t="n">
         <v>349</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C31" t="n">
         <v>11</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D31" t="n">
         <v>4</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>✨ A szérum, ami MINDENT visz!✨
 A CNP Laboratory Propolis Rescue Ampoule igazi Jolly Joker:
 💛 Szuper hidratáló és nyugtatja az irritált bőrt</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H31" t="n">
         <v>4.297994269340974</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I31" t="n">
         <v>3.151862464183381</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1.146131805157593</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L31" t="n">
         <v>0.5730659025787965</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/photo/7475619565750340886</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B32" t="n">
         <v>340</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C32" t="n">
         <v>13</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D32" t="n">
         <v>3</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>2</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>Lassú reggel jó kis alap rutinnal, finom kávé és süti, napsütésben haza sétàlni munka utàn🩷
 Life is good</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H32" t="n">
         <v>4.705882352941177</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I32" t="n">
         <v>3.823529411764706</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>0.8823529411764706</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L32" t="n">
         <v>0.5882352941176471</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7472671549238217986</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B33" t="n">
         <v>22600</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C33" t="n">
         <v>469</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D33" t="n">
         <v>6</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>53</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Ázsia Centerben vettem pár hete és a vázlatban maradt a videó🫣 Málnás Mars fehérjeszelet , 18g fehérjével és 189 kalóriával. Nem szoktam ilyeneket venni, viszont erre a koncepcióra nagyon kíváncsi voltam, hogy milyen ízvilàg. Az első harapás után nekem màr tömény volt. 1090 ft volt.</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H33" t="n">
         <v>2.101769911504425</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I33" t="n">
         <v>2.075221238938053</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.02654867256637168</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L33" t="n">
         <v>0.2345132743362832</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/photo/7471562480842460438</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B34" t="n">
         <v>391</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C34" t="n">
         <v>23</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D34" t="n">
         <v>5</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Nálunk nem “ünnep” a Valentin-nap, az év összes többi napján is figyelünk egymásra, viszont a bőröm megérdemelte a törődést tegnap is.</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H34" t="n">
         <v>7.161125319693094</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I34" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>1.278772378516624</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L34" t="n">
         <v>1.023017902813299</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7471408408344726806</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B35" t="n">
         <v>374</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C35" t="n">
         <v>16</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D35" t="n">
         <v>2</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>5</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Tudtad, hogy 3 emberből 1 bőrszárazsággal küzd, és a legtöbben semmit sem használnak ellene? Pedig a megoldás egyszerű! ✨</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H35" t="n">
         <v>4.81283422459893</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I35" t="n">
         <v>4.27807486631016</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.53475935828877</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L35" t="n">
         <v>1.336898395721925</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7471373210123111703</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B36" t="n">
         <v>438</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C36" t="n">
         <v>39</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D36" t="n">
         <v>4</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>5</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>Tudtad, hogy 3 emberből 1 bőrszárazsággal küzd, és a legtöbben semmit sem használnak ellene? Pedig a megoldás egyszerű! ✨</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H36" t="n">
         <v>9.817351598173515</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I36" t="n">
         <v>8.904109589041095</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>0.91324200913242</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L36" t="n">
         <v>1.141552511415525</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/photo/7471317547099426070</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B37" t="n">
         <v>474</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C37" t="n">
         <v>30</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D37" t="n">
         <v>8</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>6</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Imádom, ahogyan kiemelni a szemeimet ez az új szín🦋💙
 #fodrászután #újhaj #haj #hair #newhair</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H37" t="n">
         <v>8.016877637130802</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I37" t="n">
         <v>6.329113924050633</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>1.687763713080169</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L37" t="n">
         <v>1.265822784810127</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7470079309768576278</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B38" t="n">
         <v>594</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C38" t="n">
         <v>34</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D38" t="n">
         <v>6</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>6</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>A @SHEGLAM.HAIR hajgöndörítő még mindig a kedvencem, ha gyorsan szeretnék hullámokat készíteni. Nagyon egyszerű a használata, szèp hullámokat kapsz pár perc alatt. Korábban volt már róla videó, tovàbbra is töretlen a szerelem. Sheinről rendeltem, akciósan kb 7000 forint volt, kódja: 43336443 (most 6200forint)</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H38" t="n">
         <v>6.734006734006734</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I38" t="n">
         <v>5.723905723905724</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.01010101010101</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L38" t="n">
         <v>1.01010101010101</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-11</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7469489206537112854</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B39" t="n">
         <v>489</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C39" t="n">
         <v>25</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D39" t="n">
         <v>4</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Amikor valaki azt mondja nekem, hogy az otthoni edzés nem buli. AZ! Épp remek a parti a szobabicajon. 🥵💦 | If someone says home workout is not fun. IT IS! Great party here on my indoor bike🥵💦 /</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5.930470347648262</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.112474437627812</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.81799591002045</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.6134969325153374</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7469166021371301142</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>2726</v>
-      </c>
-      <c r="C35" t="n">
-        <v>54</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>3</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>10k steps a day| Amikor a napi 10ezer lépésemhez már csak pár hiànyzik, akkor a lakásban le-fel járkálok🤣 átlagosan szerencsére 10.000 lépés meg szokott lenni, de vannak napok, amikor marad a lakás sèta a nap végére.</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2.164343360234776</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.98092443140132</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1834189288334556</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.1100513573000734</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7469078436011642134</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>360</v>
-      </c>
-      <c r="C36" t="n">
-        <v>25</v>
-      </c>
-      <c r="D36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Szeretem Budapestet, de a természet nagyon hiányzik. Ha naponta ezeket a sétákat tehetném meg…lehetne saját kutyàm, élvezhetnèm a jó levegőt, szabadban futni,edzeni, gondolkodni. Van előnye a fővárosnak, de vannak dolgok, amik hiányoznak.</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6.944444444444445</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.5555555555555556</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7468723836771454230</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>446</v>
-      </c>
-      <c r="C37" t="n">
-        <v>18</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>3</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Amikor mindenfèle hajformázó eszköz nélkül így néz ki a hajam🫠😱😍 Ritka, amikor első használat után azonnal írok valamiről, ezt viszont muszáj megmutatnom Nektek. Számomra teljesen új màrka a @morfose , amit a @rossmannhungary polcain találtam, hajhabért mentem, gondoltam kipróbálom, ugyanis leírás alapjàn elég jól hangzott: tejfehérje és 12 különböző aminosav segítségével hidratálja a hajat. Nem nehezítette el a hajamat, az illata valami mennyei és olyan szép volume-t adott, a fényről nem is beszélve :o 3990 forintért vettem, nem reklám, saját vàsárlás.</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>4.260089686098654</v>
-      </c>
-      <c r="I37" t="n">
-        <v>4.035874439461884</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.2242152466367713</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.672645739910314</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7466815048518733078</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>386</v>
-      </c>
-      <c r="C38" t="n">
-        <v>14</v>
-      </c>
-      <c r="D38" t="n">
-        <v>1</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>3</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Ha nincs programod mai napra és Budapesten vagy, akkor iràny a @Trafik , amit a 9.kerületben, a Liliom utca 41.szám alatt találsz. Kellemes hely, isteni finom kávéval és új menüvel. A konyha számomra meglepetés volt, minden falatot kiélveztünk. A bajor grillkolbászos shakshuka, meleg kovászos kenyérrel érkezett. A vőlegényem Flaguette szendvicset kért amerikai káposztasalátával, ami friss, meleg és ropogós volt, a guacamole isteni volt benne! A mogyoróvajas&amp;lekváros francia pirítóson osztotuztunk, ha szereted reggelre az édeset, ne hagyd ki! A latte finom volt, bőséges az italválaszték is, minőségi Zhaozhoutea teák,</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>3.886010362694301</v>
-      </c>
-      <c r="I38" t="n">
-        <v>3.626943005181347</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.2590673575129534</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.7772020725388601</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7466446907791936790</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>350</v>
-      </c>
-      <c r="C39" t="n">
-        <v>13</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -2407,45 +2412,49 @@
       <c r="F39" t="n">
         <v>3</v>
       </c>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Amikor valaki azt mondja nekem, hogy az otthoni edzés nem buli. AZ! Épp remek a parti a szobabicajon. 🥵💦 | If someone says home workout is not fun. IT IS! Great party here on my indoor bike🥵💦 /</t>
+        </is>
+      </c>
       <c r="H39" t="n">
-        <v>4.571428571428571</v>
+        <v>5.930470347648262</v>
       </c>
       <c r="I39" t="n">
-        <v>3.714285714285714</v>
+        <v>5.112474437627812</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.81799591002045</v>
       </c>
       <c r="L39" t="n">
-        <v>0.8571428571428572</v>
+        <v>0.6134969325153374</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-02-01</t>
+          <t>2025-02-10</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7466368946212588822</t>
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7469166021371301142</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>549</v>
+        <v>2726</v>
       </c>
       <c r="C40" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2455,451 +2464,445 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
+          <t>10k steps a day| Amikor a napi 10ezer lépésemhez már csak pár hiànyzik, akkor a lakásban le-fel járkálok🤣 átlagosan szerencsére 10.000 lépés meg szokott lenni, de vannak napok, amikor marad a lakás sèta a nap végére.</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2.164343360234776</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.98092443140132</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.1834189288334556</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.1100513573000734</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7469078436011642134</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>360</v>
+      </c>
+      <c r="C41" t="n">
+        <v>25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Szeretem Budapestet, de a természet nagyon hiányzik. Ha naponta ezeket a sétákat tehetném meg…lehetne saját kutyàm, élvezhetnèm a jó levegőt, szabadban futni,edzeni, gondolkodni. Van előnye a fővárosnak, de vannak dolgok, amik hiányoznak.</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>6.944444444444445</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.5555555555555556</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7468723836771454230</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>446</v>
+      </c>
+      <c r="C42" t="n">
+        <v>18</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>3</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Amikor mindenfèle hajformázó eszköz nélkül így néz ki a hajam🫠😱😍 Ritka, amikor első használat után azonnal írok valamiről, ezt viszont muszáj megmutatnom Nektek. Számomra teljesen új màrka a @morfose , amit a @rossmannhungary polcain találtam, hajhabért mentem, gondoltam kipróbálom, ugyanis leírás alapjàn elég jól hangzott: tejfehérje és 12 különböző aminosav segítségével hidratálja a hajat. Nem nehezítette el a hajamat, az illata valami mennyei és olyan szép volume-t adott, a fényről nem is beszélve :o 3990 forintért vettem, nem reklám, saját vàsárlás.</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4.260089686098654</v>
+      </c>
+      <c r="I42" t="n">
+        <v>4.035874439461884</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.2242152466367713</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0.672645739910314</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7466815048518733078</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>386</v>
+      </c>
+      <c r="C43" t="n">
+        <v>14</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>3</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Ha nincs programod mai napra és Budapesten vagy, akkor iràny a @Trafik , amit a 9.kerületben, a Liliom utca 41.szám alatt találsz. Kellemes hely, isteni finom kávéval és új menüvel. A konyha számomra meglepetés volt, minden falatot kiélveztünk. A bajor grillkolbászos shakshuka, meleg kovászos kenyérrel érkezett. A vőlegényem Flaguette szendvicset kért amerikai káposztasalátával, ami friss, meleg és ropogós volt, a guacamole isteni volt benne! A mogyoróvajas&amp;lekváros francia pirítóson osztotuztunk, ha szereted reggelre az édeset, ne hagyd ki! A latte finom volt, bőséges az italválaszték is, minőségi Zhaozhoutea teák,</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3.886010362694301</v>
+      </c>
+      <c r="I43" t="n">
+        <v>3.626943005181347</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.2590673575129534</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.7772020725388601</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7466446907791936790</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>350</v>
+      </c>
+      <c r="C44" t="n">
+        <v>13</v>
+      </c>
+      <c r="D44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>3</v>
+      </c>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>4.571428571428571</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.714285714285714</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.8571428571428572</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2025-02-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7466368946212588822</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>549</v>
+      </c>
+      <c r="C45" t="n">
+        <v>27</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>3</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>RUN TO PEPCO
 Imádom a számfestőket, engem nagyon kikapcsol. Egyszerű így, mégis ott az alkotás öröme. 3 képet találtam a Pepcoban (csekkoltam még tegnap is volt, vettem is másikat🫣), 2300 forintba kerül. Vastag a vászon is, minőségi és gyönyörű a végeredmény. A legjobb énidő!</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H45" t="n">
         <v>5.100182149362477</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I45" t="n">
         <v>4.918032786885246</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>0.1821493624772313</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L45" t="n">
         <v>0.546448087431694</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7466193665472335126</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B46" t="n">
         <v>529</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C46" t="n">
         <v>33</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>5</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>CATRICE NEW MAKEUP😱🫠
 @Catrice Cosmetics @Müller Deutschland #catrice #catricecosmetics</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H46" t="n">
         <v>6.238185255198488</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I46" t="n">
         <v>6.238185255198488</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>0.945179584120983</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-01</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7465003972688956694</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B47" t="n">
         <v>441</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C47" t="n">
         <v>21</v>
       </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>4</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Házi és egészségesebb snickers datolyából, pár perc alatt! A videóban feliratoztam a hozzávalókat és a teendőket. Te kipróbàlod? Edzés előtt én imádom🫠🤌🏻</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H47" t="n">
         <v>4.761904761904762</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I47" t="n">
         <v>4.761904761904762</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>0.9070294784580499</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-01-29</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7464272608385797398</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B48" t="n">
         <v>909</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C48" t="n">
         <v>32</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D48" t="n">
         <v>4</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>7</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>ÚJ KÁVÉZÓ BUDAPESTEN😍 mindenképpen próbàld ki, ha arra jársz. Nagyon menő a belső, ma nyitottak így nagyon sokan voltak és nem tudtunk leülni, de megérte benézni. A Kyoto latte nagyon finom! Lehet szemes kàvèt otthonra is venni :)</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H48" t="n">
         <v>3.96039603960396</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I48" t="n">
         <v>3.52035203520352</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.44004400440044</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L48" t="n">
         <v>0.77007700770077</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-01-27</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@alexndramagyar/video/7463785462511996182</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B49" t="n">
         <v>535</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C49" t="n">
         <v>22</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D49" t="n">
         <v>6</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>2</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Amikor túl sok sminked van és a hétvégi bevásárláshoz is kikerázod magad csak azért hogy fogyjanak a termékek. Btw, annyira érdekes, hogy ilyenkor a tökéletes tust sikerül meghúzni mindenfèle erőfeszítés nélkül, bezzeg ha tényleg mennék valahova akkor három ideggörcs is elkap. Annyira tetszik most ez a tus,hogy spiràlt sem használtam.</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>5.233644859813085</v>
-      </c>
-      <c r="I44" t="n">
-        <v>4.112149532710281</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>1.121495327102804</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0.3738317757009346</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>2025-01-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/photo/7462463028290702614</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>395</v>
-      </c>
-      <c r="C45" t="n">
-        <v>23</v>
-      </c>
-      <c r="D45" t="n">
-        <v>3</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Teljesen elfelejtettem itt dokumentàlni a 75 napos kihívás részleteit, csak Instagramon sztoriztam eddig róla (IG: @alexndramagyar). Hoztam Nektek egy összefoglalót az elmúlt 19 napról.</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>6.582278481012659</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5.822784810126582</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.7594936708860759</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0.2531645569620253</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7461571212599119126</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>620</v>
-      </c>
-      <c r="C46" t="n">
-        <v>18</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>3</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Neked volt már olyan terméked, amit a csomagolása miatt utáltál hasznàlni, pedig maga a termèk szuper jó volt? Nálam a</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3.064516129032258</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.903225806451613</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.1612903225806452</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7461178102673083670</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>5955</v>
-      </c>
-      <c r="C47" t="n">
-        <v>130</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>101</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>EGÉSZSÉGES, FEHÉRJEDÚS PIZZA? 🍕 Na jó, azért nem egy nàpolyi olaszszalámis, azonban egy életmódváltásba ez jobban beilleszthető. Egyik kedvenc fehérjedús recept, ami reggelire,ebédre és vacsorára is. Bàrhogy lehet formálni a receptet, más fűszerekkel, sajàt ízlés szerint. Azért felhívnám a figyelmet arra, hogy nem dől össze a világ, ha eszel egy jó igazi pizzàt, ha a többi napon teszel magadért! Élvezni kell az életet és az ételeket!🤗</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>2.18303946263644</v>
-      </c>
-      <c r="I47" t="n">
-        <v>2.18303946263644</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>1.696053736356003</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7460979229602204950</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>425</v>
-      </c>
-      <c r="C48" t="n">
-        <v>17</v>
-      </c>
-      <c r="D48" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>US: banning TikTok
-Europe: dusts off ring light 'Our time has come.' 🎥🌍
-#tiktokban #globalfyp #tiktoktakeover</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>4.470588235294118</v>
-      </c>
-      <c r="I48" t="n">
-        <v>4</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.4705882352941176</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7460197706770730262</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>566</v>
-      </c>
-      <c r="C49" t="n">
-        <v>49</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2909,82 +2912,130 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>@Bad Bunny dropping the best summer album and I am dancing in the snow😅🥶❄️
-#badbunny</t>
+          <t>Amikor túl sok sminked van és a hétvégi bevásárláshoz is kikerázod magad csak azért hogy fogyjanak a termékek. Btw, annyira érdekes, hogy ilyenkor a tökéletes tust sikerül meghúzni mindenfèle erőfeszítés nélkül, bezzeg ha tényleg mennék valahova akkor három ideggörcs is elkap. Annyira tetszik most ez a tus,hogy spiràlt sem használtam.</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>8.8339222614841</v>
+        <v>5.233644859813085</v>
       </c>
       <c r="I49" t="n">
-        <v>8.657243816254418</v>
+        <v>4.112149532710281</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
       </c>
       <c r="K49" t="n">
-        <v>0.176678445229682</v>
+        <v>1.121495327102804</v>
       </c>
       <c r="L49" t="n">
-        <v>0.353356890459364</v>
+        <v>0.3738317757009346</v>
       </c>
       <c r="M49" t="n">
         <v>0</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-25</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@alexndramagyar/video/7460166769362160918</t>
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/photo/7462463028290702614</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1055</v>
+        <v>395</v>
       </c>
       <c r="C50" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Red lipstick theory/ a vörös rúzs ereje💄 - Ti mit gondoltok?
-#redlips #redlipstick #redlipsticktheory #redliptheory</t>
+          <t>Teljesen elfelejtettem itt dokumentàlni a 75 napos kihívás részleteit, csak Instagramon sztoriztam eddig róla (IG: @alexndramagyar). Hoztam Nektek egy összefoglalót az elmúlt 19 napról.</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3.033175355450237</v>
+        <v>6.582278481012659</v>
       </c>
       <c r="I50" t="n">
-        <v>2.654028436018957</v>
+        <v>5.822784810126582</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.3791469194312796</v>
+        <v>0.7594936708860759</v>
       </c>
       <c r="L50" t="n">
-        <v>0.3791469194312796</v>
+        <v>0.2531645569620253</v>
       </c>
       <c r="M50" t="n">
         <v>0</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-01-16</t>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@alexndramagyar/video/7461571212599119126</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>620</v>
+      </c>
+      <c r="C51" t="n">
+        <v>18</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Neked volt már olyan terméked, amit a csomagolása miatt utáltál hasznàlni, pedig maga a termèk szuper jó volt? Nálam a</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3.064516129032258</v>
+      </c>
+      <c r="I51" t="n">
+        <v>2.903225806451613</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.1612903225806452</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
